--- a/data/trans_orig/P39B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Edad-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>21,83%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,93%</t>
+          <t>49,81%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>35,32%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>35,66%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,15%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>22,18%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,56%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>39,74%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>32,65%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>17,09%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>12,19%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>33,29%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>32,89%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>15,19%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>18,98%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,44%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>29,18%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>34,88%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,46%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>23,05%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,41%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>23,98%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>32,14%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>21,93%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>23,95%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,23%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>17,91%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>32,96%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>48,58%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>23,85%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>26,01%</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,25%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,6%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -3638,7 +3638,7 @@
         <v>4823</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>3282052</v>
+        <v>3282053</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P39B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>21,95%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,81%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>34,55%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>36,0%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>18,96%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>22,08%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>14,45%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>46,57%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>39,82%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>32,48%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>17,13%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>12,24%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>33,59%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>32,58%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,22%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>18,8%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>29,09%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>34,66%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,51%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>23,28%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,4%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>24,07%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>32,49%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>21,8%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>24,04%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>17,94%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>57,94%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>49,09%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,93%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>26,24%</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>25,61%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>32,16%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>17,64%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -3638,7 +3638,7 @@
         <v>4823</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>3282053</v>
+        <v>3282052</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P39B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -682,63 +682,63 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>27732</v>
+        <v>30759</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>21</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>30706</v>
+        <v>28409</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>37</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>58438</v>
+        <v>59169</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>21,9%</t>
         </is>
       </c>
     </row>
@@ -753,63 +753,63 @@
         <v>29</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>56883</v>
+        <v>68420</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,93%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>28</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>42656</v>
+        <v>41626</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>57</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>99539</v>
+        <v>110046</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>37,7%</t>
         </is>
       </c>
     </row>
@@ -824,63 +824,63 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>48458</v>
+        <v>57781</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
         <v>31</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>54350</v>
+        <v>48657</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
         <v>50</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>102807</v>
+        <v>106438</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>36,88%</t>
         </is>
       </c>
     </row>
@@ -895,63 +895,63 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>20123</v>
+        <v>22227</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
         <v>14</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>23374</v>
+        <v>20554</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>21</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>43496</v>
+        <v>42781</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,38%</t>
         </is>
       </c>
     </row>
@@ -966,63 +966,63 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>9012</v>
+        <v>9481</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
         <v>28</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>49330</v>
+        <v>46046</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
         <v>34</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>58342</v>
+        <v>55526</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>20,5%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>162207</v>
+        <v>188669</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>122</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>200416</v>
+        <v>185292</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>199</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>362623</v>
+        <v>373961</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1112,63 +1112,63 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>30908</v>
+        <v>31260</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>38</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>40318</v>
+        <v>36916</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>64</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>71226</v>
+        <v>68177</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,42%</t>
         </is>
       </c>
     </row>
@@ -1183,63 +1183,63 @@
         <v>76</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>105856</v>
+        <v>106356</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>46,67%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>111</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>118041</v>
+        <v>108637</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>187</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>223897</v>
+        <v>214993</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>39,94%</t>
         </is>
       </c>
     </row>
@@ -1254,63 +1254,63 @@
         <v>56</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>80539</v>
+        <v>79163</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
         <v>99</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>97319</v>
+        <v>91905</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
         <v>155</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>177857</v>
+        <v>171068</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>32,52%</t>
         </is>
       </c>
     </row>
@@ -1325,53 +1325,53 @@
         <v>20</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>27904</v>
+        <v>28914</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>42</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>45954</v>
+        <v>42188</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>62</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>73857</v>
+        <v>71102</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>15,14%</t>
         </is>
       </c>
     </row>
@@ -1396,63 +1396,63 @@
         <v>17</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>24954</v>
+        <v>26578</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>62</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>63411</v>
+        <v>60805</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>79</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>88365</v>
+        <v>87382</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>17,64%</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
         <v>195</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>270161</v>
+        <v>272271</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>352</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>365042</v>
+        <v>340451</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>547</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>635202</v>
+        <v>612723</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1542,63 +1542,63 @@
         <v>44</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45552</v>
+        <v>44243</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>63</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>46915</v>
+        <v>43511</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
         <v>107</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>92468</v>
+        <v>87754</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>12,16%</t>
         </is>
       </c>
     </row>
@@ -1613,63 +1613,63 @@
         <v>126</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>127423</v>
+        <v>123324</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
         <v>210</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>150323</v>
+        <v>139647</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
         <v>336</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>277746</v>
+        <v>262971</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>33,24%</t>
         </is>
       </c>
     </row>
@@ -1684,63 +1684,63 @@
         <v>128</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>132373</v>
+        <v>129044</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
         <v>210</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>139975</v>
+        <v>131169</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
         <v>338</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>272349</v>
+        <v>260213</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>32,59%</t>
         </is>
       </c>
     </row>
@@ -1755,63 +1755,63 @@
         <v>58</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>59637</v>
+        <v>59062</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
         <v>93</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>59208</v>
+        <v>56010</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
         <v>151</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>118845</v>
+        <v>115072</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>15,37%</t>
         </is>
       </c>
     </row>
@@ -1826,63 +1826,63 @@
         <v>57</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>58215</v>
+        <v>58030</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
         <v>142</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>91844</v>
+        <v>87574</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
         <v>199</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>150059</v>
+        <v>145604</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>19,02%</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
         <v>413</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>423200</v>
+        <v>413702</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>718</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>488265</v>
+        <v>457912</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>1131</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>911466</v>
+        <v>871614</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -1972,63 +1972,63 @@
         <v>43</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>41330</v>
+        <v>39863</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>69</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>47361</v>
+        <v>43998</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
         <v>112</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>88691</v>
+        <v>83861</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,52%</t>
         </is>
       </c>
     </row>
@@ -2043,63 +2043,63 @@
         <v>156</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>154392</v>
+        <v>146859</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
         <v>272</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>180464</v>
+        <v>166119</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
         <v>428</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>334856</v>
+        <v>312978</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>28,51%</t>
         </is>
       </c>
     </row>
@@ -2114,63 +2114,63 @@
         <v>188</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>188995</v>
+        <v>178340</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
         <v>319</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>210861</v>
+        <v>218091</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
         <v>507</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>399855</v>
+        <v>396431</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>39,66%</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
         <v>75</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>76306</v>
+        <v>73020</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
@@ -2194,54 +2194,54 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
         <v>158</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>95387</v>
+        <v>88774</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
         <v>233</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>171692</v>
+        <v>161795</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,31%</t>
         </is>
       </c>
     </row>
@@ -2256,63 +2256,63 @@
         <v>116</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>115538</v>
+        <v>113975</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
         <v>221</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>145577</v>
+        <v>135746</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
         <v>337</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>261115</v>
+        <v>249721</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>23,38%</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>578</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>576561</v>
+        <v>552057</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>679650</v>
+        <v>652728</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>1617</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1256210</v>
+        <v>1204786</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -2402,58 +2402,58 @@
         <v>46</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45063</v>
+        <v>42794</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
         <v>52</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>31838</v>
+        <v>29118</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
         <v>98</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>76901</v>
+        <v>71911</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -2473,63 +2473,63 @@
         <v>135</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>131380</v>
+        <v>121811</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
         <v>186</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>112058</v>
+        <v>103093</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
         <v>321</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>243438</v>
+        <v>224904</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>23,89%</t>
         </is>
       </c>
     </row>
@@ -2544,63 +2544,63 @@
         <v>179</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>152087</v>
+        <v>142312</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
         <v>301</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>179732</v>
+        <v>164601</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
         <v>480</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>331820</v>
+        <v>306913</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>32,24%</t>
         </is>
       </c>
     </row>
@@ -2615,63 +2615,63 @@
         <v>127</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>112327</v>
+        <v>104139</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
         <v>185</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>106681</v>
+        <v>97693</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
         <v>312</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>219007</v>
+        <v>201832</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>21,69%</t>
         </is>
       </c>
     </row>
@@ -2686,63 +2686,63 @@
         <v>122</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>109714</v>
+        <v>105781</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
         <v>230</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>133430</v>
+        <v>123739</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
         <v>352</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>243143</v>
+        <v>229520</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>24,39%</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
         <v>609</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>550571</v>
+        <v>516837</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>954</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>563738</v>
+        <v>518243</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>1563</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1114309</v>
+        <v>1035080</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -2829,66 +2829,66 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>25610</v>
+        <v>15706</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>30054</v>
+        <v>12797</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>55664</v>
+        <v>28503</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -2900,66 +2900,66 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>118483</v>
+        <v>67304</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>148075</v>
+        <v>76824</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
-        <v>437</v>
+        <v>255</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>266558</v>
+        <v>144128</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>20,33%</t>
         </is>
       </c>
     </row>
@@ -2971,66 +2971,66 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>201535</v>
+        <v>104098</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>32,96%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>494</v>
+        <v>265</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>382526</v>
+        <v>337478</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>56,64%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>82,17%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
-        <v>788</v>
+        <v>429</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>584061</v>
+        <v>441575</v>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>71,89%</t>
         </is>
       </c>
     </row>
@@ -3042,66 +3042,66 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>162552</v>
+        <v>69729</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>374</v>
+        <v>152</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>195277</v>
+        <v>73059</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
-        <v>621</v>
+        <v>265</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>357829</v>
+        <v>142787</v>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>19,91%</t>
         </is>
       </c>
     </row>
@@ -3113,66 +3113,66 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>164790</v>
+        <v>92579</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>444</v>
+        <v>203</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>229010</v>
+        <v>95641</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
-        <v>699</v>
+        <v>347</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>393800</v>
+        <v>188220</v>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>26,17%</t>
         </is>
       </c>
     </row>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>994</v>
+        <v>542</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>672969</v>
+        <v>349415</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>1638</v>
+        <v>802</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>984942</v>
+        <v>595799</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="M39" s="2" t="n">
-        <v>2632</v>
+        <v>1344</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1657911</v>
+        <v>945214</v>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
@@ -3259,66 +3259,66 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>216195</v>
+        <v>8398</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>227192</v>
+        <v>14654</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
-        <v>505</v>
+        <v>39</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>443387</v>
+        <v>23052</v>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>4,49%</t>
         </is>
       </c>
     </row>
@@ -3330,66 +3330,66 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>685</v>
+        <v>65</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>694418</v>
+        <v>42754</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>1081</v>
+        <v>117</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>751616</v>
+        <v>58332</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
-        <v>1766</v>
+        <v>182</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1446034</v>
+        <v>101085</v>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>17,12%</t>
         </is>
       </c>
     </row>
@@ -3401,66 +3401,66 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>864</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>803986</v>
+        <v>81605</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>1454</v>
+        <v>229</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>1064763</v>
+        <v>112805</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
-        <v>2318</v>
+        <v>359</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1868749</v>
+        <v>194410</v>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>31,33%</t>
         </is>
       </c>
     </row>
@@ -3472,66 +3472,66 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>534</v>
+        <v>134</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>458847</v>
+        <v>80322</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>866</v>
+        <v>222</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>525880</v>
+        <v>102560</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
-        <v>1400</v>
+        <v>356</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>984728</v>
+        <v>182883</v>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>29,56%</t>
         </is>
       </c>
     </row>
@@ -3543,66 +3543,66 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>573</v>
+        <v>111</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>482223</v>
+        <v>65558</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>1127</v>
+        <v>241</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>712602</v>
+        <v>114047</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
-        <v>1700</v>
+        <v>352</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>1194825</v>
+        <v>179605</v>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>29,0%</t>
         </is>
       </c>
     </row>
@@ -3614,82 +3614,513 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
+        <v>452</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>278637</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>402398</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>1288</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>681035</v>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Más de 3 años</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>213024</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>295</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>209403</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>505</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>422427</v>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Entre uno y tres años</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>676828</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>26,32%</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>24,41%</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>28,16%</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>1081</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>694278</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>22,02%</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>17,81%</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>1766</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>1371106</v>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>21,12%</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>25,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Entre seis meses y un año</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>864</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>772343</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>30,03%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>28,14%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>32,05%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>1454</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>1104707</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>35,04%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>29,99%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>49,46%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>2318</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>1877049</v>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>32,79%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>29,65%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>41,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>3 a 5 meses</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>534</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>437413</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>866</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>480839</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>15,25%</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>918252</v>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>16,04%</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>17,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>Menos de 3 meses</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>573</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>471981</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>16,94%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>1127</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>663598</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>23,07%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>1135578</v>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
         <v>2866</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>2655669</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
+      <c r="D51" s="2" t="n">
+        <v>2571589</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
         <v>4823</v>
       </c>
-      <c r="I45" s="2" t="n">
-        <v>3282052</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="n">
+      <c r="I51" s="2" t="n">
+        <v>3152825</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="n">
         <v>7689</v>
       </c>
-      <c r="N45" s="2" t="n">
-        <v>5937722</v>
-      </c>
-      <c r="O45" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P45" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="N51" s="2" t="n">
+        <v>5724413</v>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A34:A39"/>

--- a/data/trans_orig/P39B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+          <t>Población según lo que piensan que es lo mejor que se puede hacer cuando creen que a alguien le está dando un ataque al corazón en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>30759</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>28409</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>59169</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7261</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1293</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>6093</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>68420</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2939</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>17023</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>41626</v>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>110046</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6161</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>15568</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -817,70 +949,112 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>57781</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>367494</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>353825</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>378542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>48657</v>
+          <t>94,8%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>91,28%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97,65%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>196</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>293387</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>106438</v>
+          <t>278428</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>300239</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>96,35%</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>660880</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>641860</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>673986</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>95,48%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>92,74%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>97,38%</t>
         </is>
       </c>
     </row>
@@ -888,70 +1062,112 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>22227</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6925</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>2182</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>17663</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>20554</v>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>4577</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>42781</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17954</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>11502</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4558</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>25028</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -959,70 +1175,112 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>9481</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10275</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>21238</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>46046</v>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>55526</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13401</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>14288</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7071</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>29109</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -1033,20 +1291,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>188669</v>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>387634</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>387634</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>387634</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1054,32 +1316,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>122</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>185292</v>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>203</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>304504</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>199</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>373961</v>
+          <t>304504</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>304504</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1092,6 +1362,36 @@
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>692137</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>692137</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>692137</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1105,70 +1405,112 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>31260</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>2692</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>36916</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>3922</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>68177</v>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9812</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3922</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>9567</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
         </is>
       </c>
     </row>
@@ -1176,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>106356</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5625</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>913</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>19886</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>108637</v>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>6016</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,42%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>187</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>214993</v>
+          <t>1681</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14211</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>11641</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>24985</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -1247,70 +1631,112 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>79163</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>399085</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>384103</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>409345</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>91905</v>
+          <t>94,55%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>91,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>96,98%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>424</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>485137</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>155</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>171068</v>
+          <t>471570</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>496224</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>95,38%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>884222</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>864270</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>898718</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>95,0%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>96,56%</t>
         </is>
       </c>
     </row>
@@ -1318,70 +1744,112 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>28914</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15766</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>7813</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>27469</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>42188</v>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>10967</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>71102</v>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20758</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>26733</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>16780</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>41166</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -1389,70 +1857,112 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>26578</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>9566</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>60805</v>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>2595</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>87382</v>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8009</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>11664</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -1463,20 +1973,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>195</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>272271</v>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>422091</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>422091</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>422091</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1484,32 +1998,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>352</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>340451</v>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>453</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>508636</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>547</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>612723</v>
+          <t>508636</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>508636</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1522,6 +2044,36 @@
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>930727</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>930727</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>930727</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1535,70 +2087,112 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>44243</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5885</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>12637</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>43511</v>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>4774</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>87754</v>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10213</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>10659</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>17847</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -1606,70 +2200,112 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>123324</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5879</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>1780</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>13589</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>139647</v>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>336</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>262971</v>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>8270</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>15736</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -1677,70 +2313,112 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>129044</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>506424</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>495351</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>514637</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>131169</v>
+          <t>95,64%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>93,55%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>97,19%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>795</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>512867</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>338</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>260213</v>
+          <t>504007</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>519480</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>95,88%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>1304</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1019292</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1005982</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1031139</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>95,76%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>94,51%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>96,87%</t>
         </is>
       </c>
     </row>
@@ -1748,70 +2426,112 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>59062</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8124</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>14964</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>56010</v>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>11454</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>115072</v>
+          <t>6757</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>18067</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>19578</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>13228</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>28974</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -1819,70 +2539,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>58030</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>8136</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>142</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>87574</v>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,54%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>199</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>145604</v>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7990</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>6624</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>3159</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>12409</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -1893,20 +2655,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>413</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>413702</v>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>529523</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>529523</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>529523</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1914,32 +2680,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>718</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>457912</v>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>833</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>534899</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>1131</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>871614</v>
+          <t>534899</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>534899</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1952,6 +2726,36 @@
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1064422</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1064422</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1064422</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1965,70 +2769,112 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>39863</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>633</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>11574</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>43998</v>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5890</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>83861</v>
+          <t>2641</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>10745</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>10225</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>4718</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>17376</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
         </is>
       </c>
     </row>
@@ -2036,70 +2882,112 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>146859</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>859</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>11667</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>272</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>166119</v>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>5766</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>428</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>312978</v>
+          <t>2881</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>10573</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>10183</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>18051</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +2995,112 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>178340</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>848390</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>829575</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>868283</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>319</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>218091</v>
+          <t>96,32%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>94,19%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>98,58%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>678689</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>507</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>396431</v>
+          <t>668904</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>685871</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>96,34%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>1705</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1527079</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>1509455</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1552061</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>96,33%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>95,22%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>97,9%</t>
         </is>
       </c>
     </row>
@@ -2178,70 +3108,112 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>73020</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>12190</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>23064</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>88774</v>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>10135</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>233</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>161795</v>
+          <t>5912</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>16553</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>22325</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>11819</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>32788</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -2249,70 +3221,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>113975</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>11458</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>20688</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>221</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>135746</v>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>337</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>249721</v>
+          <t>1731</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>8321</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>15482</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>8620</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>26486</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -2323,20 +3337,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>578</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>552057</v>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>880790</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>880790</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>880790</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -2344,32 +3362,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>1039</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>652728</v>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>704504</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>1617</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>1204786</v>
+          <t>704504</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>704504</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
@@ -2382,6 +3408,36 @@
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>1784</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>1585294</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>1585294</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>1585294</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2395,70 +3451,112 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>42794</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>15043</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>29118</v>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>5425</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>71911</v>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>9289</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>12673</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>7582</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>20660</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -2466,70 +3564,112 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>121811</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3288</t>
+        </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>962</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>8745</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>186</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>103093</v>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>321</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>224904</v>
+          <t>1517</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>6830</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>6790</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>3653</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>13562</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -2537,70 +3677,112 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>179</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>142312</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>503571</t>
+        </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>490845</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>514014</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>301</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>164601</v>
+          <t>92,03%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>89,7%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>93,94%</t>
+        </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>929</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>508512</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>480</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>306913</v>
+          <t>500461</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>516058</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>94,35%</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>1522</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>1012082</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>997562</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>1026139</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>93,18%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>91,84%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>94,47%</t>
         </is>
       </c>
     </row>
@@ -2608,70 +3790,112 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>104139</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>24176</t>
+        </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>16376</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>34352</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>97693</v>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>15135</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>312</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>201832</v>
+          <t>10292</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>21423</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>39311</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>30226</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>53550</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -2679,70 +3903,112 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>122</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>105781</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>8905</t>
+        </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>4948</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>15838</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>123739</v>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>6395</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>352</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>229520</v>
+          <t>3035</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>10842</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>15300</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>9704</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>22655</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -2753,20 +4019,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>609</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>516837</v>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>547189</t>
+        </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>547189</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>547189</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2774,32 +4044,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>954</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>518243</v>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>986</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>538968</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>1563</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>1035080</v>
+          <t>538968</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>538968</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2812,6 +4090,36 @@
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>1631</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>1086156</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>1086156</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>1086156</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2825,70 +4133,112 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>15706</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>5670</t>
+        </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>11217</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>12797</v>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>4517</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>28503</v>
+          <t>963</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>9257</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>10188</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>4412</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>17045</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -2896,70 +4246,112 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>67304</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>328</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>76824</v>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5299</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>255</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>144128</v>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>10452</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>6922</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>3112</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>11777</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -2967,70 +4359,112 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>104098</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>329828</t>
+        </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>321265</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>337402</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>265</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>337478</v>
+          <t>92,64%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>90,24%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>94,77%</t>
+        </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>56,64%</t>
+          <t>756</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>573502</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>429</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>441575</v>
+          <t>558523</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>587791</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>96,29%</t>
+        </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>46,72%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>1265</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>903331</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>885109</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>928257</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>94,92%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>93,01%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>97,54%</t>
         </is>
       </c>
     </row>
@@ -3038,70 +4472,112 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>69729</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>11767</t>
+        </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>18484</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>152</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>73059</v>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>8873</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>265</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>142787</v>
+          <t>2903</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>15852</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>20640</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>9989</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>30774</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -3109,70 +4585,112 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>92579</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>7138</t>
+        </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>3962</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>95641</v>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>347</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>188220</v>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>10569</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>17138</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -3183,20 +4701,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>542</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>349415</v>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>356025</t>
+        </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>356025</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>356025</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -3204,32 +4726,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>802</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>595799</v>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>802</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>595623</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>1344</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>945214</v>
+          <t>595623</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>595623</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
@@ -3242,6 +4772,36 @@
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>951649</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>951649</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>951649</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -3255,70 +4815,112 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>8398</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>5326</t>
+        </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2291</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
+          <t>11407</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>5765</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>2874</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>11091</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>6617</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>17223</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
           <t>1,71%</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>14654</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>3,64%</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>23052</v>
-      </c>
-      <c r="O40" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
-        </is>
-      </c>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>2,46%</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -3326,70 +4928,112 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>42754</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>6461</t>
+        </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>12232</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>58332</v>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>8967</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>182</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>101085</v>
+          <t>5511</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>13978</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>15428</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>10078</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>22416</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -3397,70 +5041,112 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>81605</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>228822</t>
+        </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>219156</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>236498</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>229</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>112805</v>
+          <t>86,07%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>82,43%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>88,95%</t>
+        </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>672</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>331148</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>359</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>194410</v>
+          <t>321580</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>339711</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>86,45%</t>
+        </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>83,95%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>559970</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>547495</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>573049</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>86,29%</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>84,37%</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>88,31%</t>
         </is>
       </c>
     </row>
@@ -3468,70 +5154,112 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>80322</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>20992</t>
+        </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>15195</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>28278</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>222</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>102560</v>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>29432</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>356</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>182883</v>
+          <t>23446</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>36632</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>50424</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>41722</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>59980</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -3539,70 +5267,112 @@
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>65558</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>8077</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>114047</v>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>7727</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>352</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>179605</v>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>13536</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>11992</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>7529</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>18573</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -3613,20 +5383,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>452</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>278637</v>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>265866</t>
+        </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>265866</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>265866</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -3634,32 +5408,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>836</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>402398</v>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>786</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>383039</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>1288</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>681035</v>
+          <t>383039</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>383039</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
@@ -3672,6 +5454,36 @@
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>648905</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>648905</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>648905</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -3685,70 +5497,112 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>213024</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>28465</t>
+        </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>18851</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>41030</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>209403</v>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>31584</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>505</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>422427</v>
+          <t>22956</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>42213</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>60049</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>46928</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>74841</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="W46" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -3756,70 +5610,112 @@
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>685</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>676828</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>30232</t>
+        </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>18415</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>46461</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>1081</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>694278</v>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>33177</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
-        </is>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>1766</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>1371106</v>
+          <t>24183</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>44956</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t>63409</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>49463</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>83598</t>
+        </is>
+      </c>
+      <c r="U47" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="W47" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -3827,70 +5723,112 @@
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>864</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>772343</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>3183614</t>
+        </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>3148228</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>3230814</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>1454</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>1104707</v>
+          <t>93,94%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>92,89%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>95,33%</t>
+        </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>3383242</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>2318</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>1877049</v>
+          <t>3352878</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>3420231</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>94,76%</t>
+        </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>7886</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>6566857</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>6522834</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>6623232</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
+          <t>94,36%</t>
+        </is>
+      </c>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>93,73%</t>
+        </is>
+      </c>
+      <c r="W48" s="2" t="inlineStr">
+        <is>
+          <t>95,17%</t>
         </is>
       </c>
     </row>
@@ -3898,70 +5836,112 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>534</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>437413</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>99940</t>
+        </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>78626</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>123591</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>866</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>480839</v>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>90573</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
-        </is>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>1400</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>918252</v>
+          <t>69773</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>110088</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>190513</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="inlineStr">
+        <is>
+          <t>216101</t>
+        </is>
+      </c>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="W49" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -3969,70 +5949,112 @@
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>471981</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>46866</t>
+        </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>32964</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>63600</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>1127</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>663598</v>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>31597</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
-        </is>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>1700</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>1135578</v>
+          <t>22019</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>44592</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>78463</t>
+        </is>
+      </c>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>61243</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>95942</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="V50" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="W50" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -4043,20 +6065,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>2866</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>2571589</v>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>3287</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>3389117</t>
+        </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3389117</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3389117</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -4064,32 +6090,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>4823</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>3152825</v>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5190</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3570173</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>7689</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>5724413</v>
+          <t>3570173</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>3570173</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
@@ -4102,6 +6136,36 @@
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>8477</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>6959290</t>
+        </is>
+      </c>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>6959290</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr">
+        <is>
+          <t>6959290</t>
+        </is>
+      </c>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W51" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -4116,18 +6180,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A46:A51"/>
     <mergeCell ref="A16:A21"/>
-    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
